--- a/m1/UnityProject/Assets/Scene/5000_Game/doc/Base/StateControl.xlsx
+++ b/m1/UnityProject/Assets/Scene/5000_Game/doc/Base/StateControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D699E1-E24D-45A7-A2D6-13ACDE4F8B4F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3FC312-CF46-4D00-AA8F-FDE99D61B6EF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,15 +338,15 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>camera_zoom_at_launch();</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>camera_zoom_at_launch_done()</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/06/03 19:22:46
+    <t>camera_zoom_at_launch(20);</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/06/05 6:02:52
 xlsfile=@@@
 StateControl.xlsx
 @@@
@@ -369,6 +369,9 @@
 _convert.bat
 @@@
 source_editor=@@@
+@@@
+label_show=0
+label_text=@@@
 @@@
 </t>
     <phoneticPr fontId="14"/>
@@ -1335,7 +1338,7 @@
         <v>49</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1381,7 +1384,7 @@
         <v>48</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1">

--- a/m1/UnityProject/Assets/Scene/5000_Game/doc/Base/StateControl.xlsx
+++ b/m1/UnityProject/Assets/Scene/5000_Game/doc/Base/StateControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3FC312-CF46-4D00-AA8F-FDE99D61B6EF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C8876E-F7EA-48F0-970F-F546110B84E0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>state</t>
     <phoneticPr fontId="14"/>
@@ -330,10 +330,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>S_GAMESCENE</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>100009</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -346,7 +342,27 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/06/05 6:02:52
+    <t>S_LAUNCH</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>発射</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>100010</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>rocket_launch_done()</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>rocket_launch(100);</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/06/05 21:54:15
 xlsfile=@@@
 StateControl.xlsx
 @@@
@@ -360,7 +376,7 @@
 [{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":1372,"y":246.25}},{"Key":"S_WAIT_MBDOWN","Value":{"x":295.25,"y":101.25}},{"Key":"S_INIT_VARS","Value":{"x":516,"y":105}},{"Key":"S_CHECKEVENT","Value":{"x":740.5,"y":102.5}},{"Key":"S_SETEVT_CLICK","Value":{"x":1008.75,"y":55}},{"Key":"S_SETEVT_DCLICK","Value":{"x":1010.75,"y":210}},{"Key":"S_SETEVT_DRAG","Value":{"x":1011.5,"y":368.75}},{"Key":"S_SETEVT_CANCEL","Value":{"x":1011,"y":537.5}}]
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":20,"y":26}},{"Key":"S_END","Value":{"x":1078.33337,"y":76.91669}},{"Key":"S_WAIT_MBDOWN","Value":{"x":295.25,"y":101.25}},{"Key":"S_INIT_VARS","Value":{"x":516,"y":105}},{"Key":"S_CHECKEVENT","Value":{"x":740.5,"y":102.5}},{"Key":"S_SETEVT_CLICK","Value":{"x":1008.75,"y":55}},{"Key":"S_SETEVT_DCLICK","Value":{"x":1010.75,"y":210}},{"Key":"S_SETEVT_DRAG","Value":{"x":1011.5,"y":368.75}},{"Key":"S_SETEVT_CANCEL","Value":{"x":1011,"y":537.5}},{"Key":"S_NONE","Value":{"x":50,"y":100}},{"Key":"S_WAITTOUCH","Value":{"x":364,"y":41}},{"Key":"S_MOVE_PLAYERSYMBOL","Value":{"x":739.3528,"y":62.35292}},{"Key":"S_SET_HITBLOCK","Value":{"x":1088.94128,"y":674.352966}},{"Key":"S_TOUCHED_HITBLOCK","Value":{"x":777.2352,"y":355.52948}},{"Key":"S_ROTATE_HITBLOCK","Value":{"x":1394.17639,"y":165.882324}},{"Key":"S_DELETE_HITBLOCK","Value":{"x":69.23535,"y":478.411743}},{"Key":"S_1","Value":{"x":466.6667,"y":341.333344}},{"Key":"S_MENUSCENE","Value":{"x":427,"y":60}},{"Key":"S_GAMESCENE","Value":{"x":673,"y":318.333344}},{"Key":"S_GAMEOVERSCENE","Value":{"x":857.000061,"y":311.6667}},{"Key":"S_BOOTSCENE","Value":{"x":236,"y":49}},{"Key":"S_ROCKETSHOW","Value":{"x":62.33333,"y":338.333344}},{"Key":"S_HUMANMOVE","Value":{"x":256.3333,"y":335.6667}},{"Key":"S_ZOOMOUT","Value":{"x":445.333374,"y":336}},{"Key":"S_MANMOVE","Value":{"x":256.3333,"y":335.6667}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":20,"y":26}},{"Key":"S_END","Value":{"x":1078.33337,"y":76.91669}},{"Key":"S_WAIT_MBDOWN","Value":{"x":295.25,"y":101.25}},{"Key":"S_INIT_VARS","Value":{"x":516,"y":105}},{"Key":"S_CHECKEVENT","Value":{"x":740.5,"y":102.5}},{"Key":"S_SETEVT_CLICK","Value":{"x":1008.75,"y":55}},{"Key":"S_SETEVT_DCLICK","Value":{"x":1010.75,"y":210}},{"Key":"S_SETEVT_DRAG","Value":{"x":1011.5,"y":368.75}},{"Key":"S_SETEVT_CANCEL","Value":{"x":1011,"y":537.5}},{"Key":"S_NONE","Value":{"x":50,"y":100}},{"Key":"S_WAITTOUCH","Value":{"x":364,"y":41}},{"Key":"S_MOVE_PLAYERSYMBOL","Value":{"x":739.3528,"y":62.35292}},{"Key":"S_SET_HITBLOCK","Value":{"x":1088.94128,"y":674.352966}},{"Key":"S_TOUCHED_HITBLOCK","Value":{"x":777.2352,"y":355.52948}},{"Key":"S_ROTATE_HITBLOCK","Value":{"x":1394.17639,"y":165.882324}},{"Key":"S_DELETE_HITBLOCK","Value":{"x":69.23535,"y":478.411743}},{"Key":"S_1","Value":{"x":662,"y":337}},{"Key":"S_MENUSCENE","Value":{"x":427,"y":60}},{"Key":"S_GAMESCENE","Value":{"x":890,"y":318.333344}},{"Key":"S_GAMEOVERSCENE","Value":{"x":1122,"y":309.6667}},{"Key":"S_BOOTSCENE","Value":{"x":236,"y":49}},{"Key":"S_ROCKETSHOW","Value":{"x":62.33333,"y":338.333344}},{"Key":"S_HUMANMOVE","Value":{"x":256.3333,"y":335.6667}},{"Key":"S_ZOOMOUT","Value":{"x":445.333374,"y":336}},{"Key":"S_MANMOVE","Value":{"x":256.3333,"y":335.6667}},{"Key":"S_LAUNCH","Value":{"x":662,"y":337}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1170,7 +1186,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1195,7 +1211,7 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="144.75" customHeight="1">
+    <row r="1" spans="1:13" ht="144.75" customHeight="1">
       <c r="A1" s="22"/>
       <c r="B1" s="21" t="s">
         <v>9</v>
@@ -1204,7 +1220,7 @@
       <c r="D1" s="21"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:12" s="31" customFormat="1">
+    <row r="2" spans="1:13" s="31" customFormat="1">
       <c r="A2" s="27"/>
       <c r="B2" s="28" t="s">
         <v>0</v>
@@ -1239,8 +1255,11 @@
       <c r="L2" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="37.5">
+      <c r="M2" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="37.5">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1275,8 +1294,11 @@
       <c r="L3" s="34" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M3" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -1307,17 +1329,20 @@
         <v>50</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>57</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="6"/>
       <c r="B5" s="20"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="32" t="s">
         <v>15</v>
@@ -1338,17 +1363,20 @@
         <v>49</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>56</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="6"/>
       <c r="B7" s="18"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="32" t="s">
         <v>16</v>
@@ -1357,7 +1385,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="41" t="s">
         <v>44</v>
@@ -1369,7 +1397,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="32" t="s">
         <v>8</v>
@@ -1384,10 +1412,13 @@
         <v>48</v>
       </c>
       <c r="L10" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1">
+        <v>55</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="39" t="s">
         <v>36</v>
@@ -1402,7 +1433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>6</v>
@@ -1411,7 +1442,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="13"/>
       <c r="B13" s="14" t="s">
         <v>7</v>
@@ -1420,7 +1451,7 @@
       <c r="D13" s="14"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
         <v>14</v>
@@ -1429,12 +1460,12 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="B16" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="18.75" customHeight="1">
+    <row r="17" spans="2:13" ht="18.75" customHeight="1">
       <c r="B17" s="33" t="s">
         <v>18</v>
       </c>
@@ -1463,7 +1494,10 @@
         <v>47</v>
       </c>
       <c r="L17" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/m1/UnityProject/Assets/Scene/5000_Game/doc/Base/StateControl.xlsx
+++ b/m1/UnityProject/Assets/Scene/5000_Game/doc/Base/StateControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C8876E-F7EA-48F0-970F-F546110B84E0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68900C42-913D-47D4-9B2B-15F48AA890C1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>state</t>
     <phoneticPr fontId="14"/>
@@ -354,15 +354,51 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>rocket_launch_done()</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>rocket_launch(100);</t>
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/06/05 21:54:15
+    <t>S_LAUNCH_WAIT</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>mankind_hide();</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>カメラ待ち</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>S_LAUNCH_CAM</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>100011</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>カメラ追っかけ</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>100012</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>camera_launch_done()</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>camera_launch(100);</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/06/06 20:56:44
 xlsfile=@@@
 StateControl.xlsx
 @@@
@@ -376,7 +412,7 @@
 [{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":1372,"y":246.25}},{"Key":"S_WAIT_MBDOWN","Value":{"x":295.25,"y":101.25}},{"Key":"S_INIT_VARS","Value":{"x":516,"y":105}},{"Key":"S_CHECKEVENT","Value":{"x":740.5,"y":102.5}},{"Key":"S_SETEVT_CLICK","Value":{"x":1008.75,"y":55}},{"Key":"S_SETEVT_DCLICK","Value":{"x":1010.75,"y":210}},{"Key":"S_SETEVT_DRAG","Value":{"x":1011.5,"y":368.75}},{"Key":"S_SETEVT_CANCEL","Value":{"x":1011,"y":537.5}}]
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":20,"y":26}},{"Key":"S_END","Value":{"x":1078.33337,"y":76.91669}},{"Key":"S_WAIT_MBDOWN","Value":{"x":295.25,"y":101.25}},{"Key":"S_INIT_VARS","Value":{"x":516,"y":105}},{"Key":"S_CHECKEVENT","Value":{"x":740.5,"y":102.5}},{"Key":"S_SETEVT_CLICK","Value":{"x":1008.75,"y":55}},{"Key":"S_SETEVT_DCLICK","Value":{"x":1010.75,"y":210}},{"Key":"S_SETEVT_DRAG","Value":{"x":1011.5,"y":368.75}},{"Key":"S_SETEVT_CANCEL","Value":{"x":1011,"y":537.5}},{"Key":"S_NONE","Value":{"x":50,"y":100}},{"Key":"S_WAITTOUCH","Value":{"x":364,"y":41}},{"Key":"S_MOVE_PLAYERSYMBOL","Value":{"x":739.3528,"y":62.35292}},{"Key":"S_SET_HITBLOCK","Value":{"x":1088.94128,"y":674.352966}},{"Key":"S_TOUCHED_HITBLOCK","Value":{"x":777.2352,"y":355.52948}},{"Key":"S_ROTATE_HITBLOCK","Value":{"x":1394.17639,"y":165.882324}},{"Key":"S_DELETE_HITBLOCK","Value":{"x":69.23535,"y":478.411743}},{"Key":"S_1","Value":{"x":662,"y":337}},{"Key":"S_MENUSCENE","Value":{"x":427,"y":60}},{"Key":"S_GAMESCENE","Value":{"x":890,"y":318.333344}},{"Key":"S_GAMEOVERSCENE","Value":{"x":1122,"y":309.6667}},{"Key":"S_BOOTSCENE","Value":{"x":236,"y":49}},{"Key":"S_ROCKETSHOW","Value":{"x":62.33333,"y":338.333344}},{"Key":"S_HUMANMOVE","Value":{"x":256.3333,"y":335.6667}},{"Key":"S_ZOOMOUT","Value":{"x":445.333374,"y":336}},{"Key":"S_MANMOVE","Value":{"x":256.3333,"y":335.6667}},{"Key":"S_LAUNCH","Value":{"x":662,"y":337}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":20,"y":26}},{"Key":"S_END","Value":{"x":1078.33337,"y":76.91669}},{"Key":"S_WAIT_MBDOWN","Value":{"x":295.25,"y":101.25}},{"Key":"S_INIT_VARS","Value":{"x":516,"y":105}},{"Key":"S_CHECKEVENT","Value":{"x":740.5,"y":102.5}},{"Key":"S_SETEVT_CLICK","Value":{"x":1008.75,"y":55}},{"Key":"S_SETEVT_DCLICK","Value":{"x":1010.75,"y":210}},{"Key":"S_SETEVT_DRAG","Value":{"x":1011.5,"y":368.75}},{"Key":"S_SETEVT_CANCEL","Value":{"x":1011,"y":537.5}},{"Key":"S_NONE","Value":{"x":50,"y":100}},{"Key":"S_WAITTOUCH","Value":{"x":364,"y":41}},{"Key":"S_MOVE_PLAYERSYMBOL","Value":{"x":739.3528,"y":62.35292}},{"Key":"S_SET_HITBLOCK","Value":{"x":1088.94128,"y":674.352966}},{"Key":"S_TOUCHED_HITBLOCK","Value":{"x":777.2352,"y":355.52948}},{"Key":"S_ROTATE_HITBLOCK","Value":{"x":1394.17639,"y":165.882324}},{"Key":"S_DELETE_HITBLOCK","Value":{"x":69.23535,"y":478.411743}},{"Key":"S_1","Value":{"x":964.706,"y":338.823547}},{"Key":"S_MENUSCENE","Value":{"x":427,"y":60}},{"Key":"S_GAMESCENE","Value":{"x":1175,"y":374}},{"Key":"S_GAMEOVERSCENE","Value":{"x":1356,"y":374.333344}},{"Key":"S_BOOTSCENE","Value":{"x":236,"y":49}},{"Key":"S_ROCKETSHOW","Value":{"x":62.33333,"y":338.333344}},{"Key":"S_HUMANMOVE","Value":{"x":256.3333,"y":335.6667}},{"Key":"S_ZOOMOUT","Value":{"x":445.333374,"y":336}},{"Key":"S_MANMOVE","Value":{"x":234.333313,"y":345.6667}},{"Key":"S_LAUNCH","Value":{"x":626,"y":338}},{"Key":"S_LAUNCH0","Value":{"x":796,"y":327}},{"Key":"S_LAUNCH_CAM","Value":{"x":954.117737,"y":335.294128}},{"Key":"S_LAUNCH_WAIT","Value":{"x":784,"y":334.352936}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -1186,7 +1222,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="38" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1211,7 +1247,7 @@
     <col min="1" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="144.75" customHeight="1">
+    <row r="1" spans="1:15" ht="144.75" customHeight="1">
       <c r="A1" s="22"/>
       <c r="B1" s="21" t="s">
         <v>9</v>
@@ -1220,7 +1256,7 @@
       <c r="D1" s="21"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:13" s="31" customFormat="1">
+    <row r="2" spans="1:15" s="31" customFormat="1">
       <c r="A2" s="27"/>
       <c r="B2" s="28" t="s">
         <v>0</v>
@@ -1258,8 +1294,14 @@
       <c r="M2" s="37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="37.5">
+      <c r="N2" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="37.5">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1297,8 +1339,14 @@
       <c r="M3" s="34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1">
+      <c r="N3" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -1332,17 +1380,23 @@
         <v>57</v>
       </c>
       <c r="M4" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="6"/>
       <c r="B5" s="20"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1">
+    <row r="6" spans="1:15" ht="18.75" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="32" t="s">
         <v>15</v>
@@ -1366,17 +1420,23 @@
         <v>56</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>60</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="6"/>
       <c r="B7" s="18"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1">
+    <row r="8" spans="1:15" ht="18.75" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="32" t="s">
         <v>16</v>
@@ -1385,7 +1445,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1">
+    <row r="9" spans="1:15" ht="18.75" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="41" t="s">
         <v>44</v>
@@ -1396,8 +1456,11 @@
       <c r="J9" s="40" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1">
+      <c r="N9" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="32" t="s">
         <v>8</v>
@@ -1415,10 +1478,16 @@
         <v>55</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1">
+        <v>43</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="39" t="s">
         <v>36</v>
@@ -1432,8 +1501,11 @@
       <c r="J11" s="35" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="K11" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>6</v>
@@ -1442,7 +1514,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="13"/>
       <c r="B13" s="14" t="s">
         <v>7</v>
@@ -1451,7 +1523,7 @@
       <c r="D13" s="14"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
         <v>14</v>
@@ -1460,12 +1532,12 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="B16" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="18.75" customHeight="1">
+    <row r="17" spans="2:15" ht="18.75" customHeight="1">
       <c r="B17" s="33" t="s">
         <v>18</v>
       </c>
@@ -1498,6 +1570,12 @@
       </c>
       <c r="M17" s="34" t="s">
         <v>59</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
